--- a/NformTester/NformTester/Keywordscripts/600.60.20.50_ServerOptionsRSDConfiguration.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.50_ServerOptionsRSDConfiguration.xlsx
@@ -3877,10 +3877,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>;The goal of this test is to verify the GUI of Site ID in server options window and device properties window. The goal of this test is to verify the GUI of Site ID in server options window and device properties window. The goal of this test is to verify the GUI of Site ID in server options window and device properties window. The goal of this test is check the default layouts of RSD support check box.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4009,6 +4005,9 @@
   <si>
     <t>;</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiteIDCombo</t>
   </si>
 </sst>
 </file>
@@ -4609,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4768,7 +4767,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -4792,7 +4791,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -4816,32 +4815,32 @@
         <v>6</v>
       </c>
       <c r="D7" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>867</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>868</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>869</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="L7" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>874</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>875</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="19"/>
@@ -4855,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -5029,7 +5028,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="20"/>
@@ -5363,7 +5362,7 @@
         <v>452</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -5504,7 +5503,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>437</v>
@@ -5546,7 +5545,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -5650,7 +5649,7 @@
         <v>854</v>
       </c>
       <c r="J36" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
@@ -5686,7 +5685,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5752,10 +5751,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>621</v>
@@ -5764,7 +5763,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -5778,21 +5777,21 @@
         <v>41</v>
       </c>
       <c r="D42" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -5804,13 +5803,13 @@
         <v>42</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>5</v>
@@ -5828,16 +5827,16 @@
         <v>43</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
@@ -5852,25 +5851,25 @@
         <v>44</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F45" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="23" t="s">
         <v>880</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="23" t="s">
-        <v>881</v>
       </c>
       <c r="I45" s="23" t="s">
         <v>854</v>
       </c>
       <c r="J45" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
@@ -5882,16 +5881,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F46" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="G46" s="20" t="s">
         <v>882</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>883</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="20"/>
@@ -5906,22 +5905,22 @@
         <v>46</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="23" t="s">
-        <v>860</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>854</v>
+      <c r="H47" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>857</v>
       </c>
       <c r="J47" s="20" t="b">
         <v>1</v>
@@ -5936,19 +5935,19 @@
         <v>47</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F48" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="G48" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="G48" s="23" t="s">
-        <v>893</v>
-      </c>
       <c r="H48" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="20"/>
@@ -5962,16 +5961,16 @@
         <v>48</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="20"/>
@@ -5986,19 +5985,19 @@
         <v>49</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -6012,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>559</v>
@@ -6036,10 +6035,10 @@
         <v>51</v>
       </c>
       <c r="D52" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>621</v>
@@ -6048,7 +6047,7 @@
         <v>56</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -6062,21 +6061,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6088,16 +6087,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -6112,25 +6111,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F55" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="23" t="s">
         <v>880</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="23" t="s">
-        <v>881</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>854</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -6142,22 +6141,22 @@
         <v>55</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H56" s="23" t="s">
-        <v>859</v>
-      </c>
-      <c r="I56" s="23" t="s">
-        <v>854</v>
+        <v>858</v>
+      </c>
+      <c r="I56" s="20" t="s">
+        <v>855</v>
       </c>
       <c r="J56" s="20" t="b">
         <v>1</v>
@@ -6172,19 +6171,19 @@
         <v>56</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F57" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="G57" s="23" t="s">
         <v>892</v>
       </c>
-      <c r="G57" s="23" t="s">
-        <v>893</v>
-      </c>
       <c r="H57" s="23" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I57" s="23"/>
       <c r="J57" s="20"/>
@@ -6198,19 +6197,19 @@
         <v>57</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I58" s="23"/>
       <c r="J58" s="20"/>
@@ -6224,7 +6223,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>559</v>
@@ -6248,10 +6247,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>621</v>
@@ -6260,7 +6259,7 @@
         <v>56</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -6274,21 +6273,21 @@
         <v>60</v>
       </c>
       <c r="D61" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -6300,16 +6299,16 @@
         <v>61</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -6324,13 +6323,13 @@
         <v>62</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>7</v>
@@ -6342,7 +6341,7 @@
         <v>854</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
@@ -6354,7 +6353,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>559</v>
@@ -6378,21 +6377,21 @@
         <v>64</v>
       </c>
       <c r="D65" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
@@ -6581,10 +6580,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>621</v>
@@ -6593,7 +6592,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -6607,21 +6606,21 @@
         <v>73</v>
       </c>
       <c r="D74" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E74" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -6633,13 +6632,13 @@
         <v>74</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>6</v>
@@ -6657,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>559</v>
@@ -6681,21 +6680,21 @@
         <v>76</v>
       </c>
       <c r="D77" s="22" t="s">
+        <v>875</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>876</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>877</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
@@ -6899,7 +6898,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83:G85 G2:G45 G47 G49:G56 G58:G81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83:G85 G2:G45 G49:G56 G47 G58:G81">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F42 F45:F53 F63:F74 F76:F85 F55:F61">

--- a/NformTester/NformTester/Keywordscripts/600.60.20.50_ServerOptionsRSDConfiguration.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.60.20.50_ServerOptionsRSDConfiguration.xlsx
@@ -3916,98 +3916,98 @@
     <t>SingleManual</t>
   </si>
   <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiebertRSD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalValue</t>
+  </si>
+  <si>
+    <t>WindowText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverrideGlobalValue</t>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>SiteIDText</t>
+  </si>
+  <si>
+    <t>"555555555544444444443333333333222222222211111111110000000000"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"55555555554444444444333333333322222222221111111111"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Select one device and open the deviced properties window, go to the right tab to configure the device site id and device tag.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceTag</t>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiteIdCombo</t>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiteIDCombo</t>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiebertRSD</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>GlobalValue</t>
-  </si>
-  <si>
-    <t>WindowText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverrideGlobalValue</t>
-  </si>
-  <si>
-    <t>Set</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>SiteIDText</t>
-  </si>
-  <si>
-    <t>"555555555544444444443333333333222222222211111111110000000000"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"55555555554444444444333333333322222222221111111111"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Select one device and open the deviced properties window, go to the right tab to configure the device site id and device tag.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeviceTag</t>
-  </si>
-  <si>
-    <t>Clear</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiteIdCombo</t>
-  </si>
-  <si>
-    <t>Select</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiteIDCombo</t>
   </si>
 </sst>
 </file>
@@ -4608,8 +4608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D53" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4827,20 +4827,20 @@
       <c r="H7" s="20" t="s">
         <v>869</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="L7" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>872</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>874</v>
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="19"/>
@@ -5362,7 +5362,7 @@
         <v>452</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
@@ -5503,7 +5503,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>437</v>
@@ -5685,7 +5685,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5751,10 +5751,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>621</v>
@@ -5763,7 +5763,7 @@
         <v>56</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -5777,21 +5777,21 @@
         <v>41</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F42" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
@@ -5803,13 +5803,13 @@
         <v>42</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G43" s="20" t="s">
         <v>5</v>
@@ -5827,16 +5827,16 @@
         <v>43</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
@@ -5851,19 +5851,19 @@
         <v>44</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G45" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I45" s="23" t="s">
         <v>854</v>
@@ -5881,16 +5881,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="20"/>
@@ -5905,13 +5905,13 @@
         <v>46</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G47" s="20" t="s">
         <v>7</v>
@@ -5935,19 +5935,19 @@
         <v>47</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="20"/>
@@ -5961,16 +5961,16 @@
         <v>48</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E49" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="20"/>
@@ -5985,19 +5985,19 @@
         <v>49</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G50" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="20"/>
@@ -6011,7 +6011,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>559</v>
@@ -6035,10 +6035,10 @@
         <v>51</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F52" s="20" t="s">
         <v>621</v>
@@ -6047,7 +6047,7 @@
         <v>56</v>
       </c>
       <c r="H52" s="20" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -6061,21 +6061,21 @@
         <v>52</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F53" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
@@ -6087,16 +6087,16 @@
         <v>53</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
@@ -6111,25 +6111,25 @@
         <v>54</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G55" s="20" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>854</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
@@ -6141,13 +6141,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G56" s="20" t="s">
         <v>7</v>
@@ -6171,16 +6171,16 @@
         <v>56</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H57" s="23" t="s">
         <v>864</v>
@@ -6197,19 +6197,19 @@
         <v>57</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F58" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G58" s="20" t="s">
         <v>4</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I58" s="23"/>
       <c r="J58" s="20"/>
@@ -6223,7 +6223,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E59" s="23" t="s">
         <v>559</v>
@@ -6247,10 +6247,10 @@
         <v>59</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F60" s="20" t="s">
         <v>621</v>
@@ -6259,7 +6259,7 @@
         <v>56</v>
       </c>
       <c r="H60" s="20" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -6273,21 +6273,21 @@
         <v>60</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F61" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
@@ -6299,16 +6299,16 @@
         <v>61</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F62" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G62" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
@@ -6323,13 +6323,13 @@
         <v>62</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G63" s="20" t="s">
         <v>7</v>
@@ -6341,7 +6341,7 @@
         <v>854</v>
       </c>
       <c r="J63" s="23" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="K63" s="20"/>
       <c r="L63" s="20"/>
@@ -6353,7 +6353,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>559</v>
@@ -6377,21 +6377,21 @@
         <v>64</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
@@ -6580,10 +6580,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>621</v>
@@ -6592,7 +6592,7 @@
         <v>56</v>
       </c>
       <c r="H73" s="20" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -6606,21 +6606,21 @@
         <v>73</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>203</v>
       </c>
       <c r="G74" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K74" s="20"/>
       <c r="L74" s="20"/>
@@ -6632,13 +6632,13 @@
         <v>74</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>559</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G75" s="20" t="s">
         <v>6</v>
@@ -6656,7 +6656,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>559</v>
@@ -6680,21 +6680,21 @@
         <v>76</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F77" s="20" t="s">
         <v>100</v>
       </c>
       <c r="G77" s="20" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H77" s="15"/>
       <c r="I77" s="20"/>
       <c r="J77" s="20" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K77" s="20"/>
       <c r="L77" s="20"/>
